--- a/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,25 @@
     <t>ID</t>
   </si>
   <si>
-    <t>升级资源</t>
+    <t>升级资源（id|数量）</t>
   </si>
   <si>
     <t>升级花费</t>
   </si>
   <si>
-    <t>升级条件</t>
-  </si>
-  <si>
-    <t>升级时间</t>
-  </si>
-  <si>
-    <t>解锁种子</t>
+    <t>升级条件（主船等级）</t>
+  </si>
+  <si>
+    <t>升级时间（s）</t>
+  </si>
+  <si>
+    <t>解锁种子（id）</t>
   </si>
   <si>
     <t>模型资源</t>
   </si>
   <si>
-    <t>种植时间</t>
+    <t>种植时间（s）</t>
   </si>
   <si>
     <t>A</t>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,13 +115,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,7 +122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,68 +130,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +144,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,8 +204,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +229,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +245,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,49 +273,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,133 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +482,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,6 +504,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,59 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,6 +570,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,23 +1061,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="2" max="2" width="16.9909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6727272727273" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2363636363636" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.9363636363636" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="8.73148148148148" style="1"/>
+    <col min="2" max="2" width="16.9907407407407" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6759259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8055555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2407407407407" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8148148148148" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9351851851852" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.73148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
@@ -87,9 +87,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -122,15 +122,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,15 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,39 +204,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,17 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,31 +234,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,25 +273,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,145 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +484,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,39 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -552,6 +517,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,9 +547,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,130 +602,130 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -1146,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>

--- a/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,6 +115,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,10 +157,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,26 +203,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,72 +234,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,43 +273,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,139 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,15 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -502,6 +493,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,7 +549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,30 +579,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -1146,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>

--- a/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="25300" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>1001|20;1002|10;</t>
-  </si>
-  <si>
-    <t>Potato</t>
   </si>
   <si>
     <t>model_Farm</t>
@@ -88,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -114,6 +111,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -121,8 +126,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,37 +162,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +183,45 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,72 +233,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,61 +270,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,121 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,8 +482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +503,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -517,15 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,11 +561,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,23 +571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,19 +596,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,112 +617,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,23 +1058,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.73148148148148" style="1"/>
-    <col min="2" max="2" width="16.9907407407407" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6759259259259" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8055555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2407407407407" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8148148148148" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.9351851851852" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.73148148148148" style="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="16.9909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2363636363636" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9363636363636" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="13.5" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" ht="13.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1129,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="13.5" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="13.5" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1197,11 +1194,11 @@
       <c r="E5" s="1">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>50</v>
@@ -1223,11 +1220,11 @@
       <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>50</v>
@@ -1249,11 +1246,11 @@
       <c r="E7" s="1">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="1">
         <v>50</v>
@@ -1275,11 +1272,11 @@
       <c r="E8" s="1">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="1">
         <v>50</v>
@@ -1301,11 +1298,11 @@
       <c r="E9" s="1">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="1">
         <v>50</v>
@@ -1327,11 +1324,11 @@
       <c r="E10" s="1">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="1">
         <v>50</v>

--- a/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
@@ -73,7 +73,7 @@
     <t>PlantingSpeed</t>
   </si>
   <si>
-    <t>1001|20;1002|10;</t>
+    <t>1001|20;1002|10</t>
   </si>
   <si>
     <t>Potato</t>
@@ -88,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,7 +115,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,19 +182,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -150,18 +196,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,56 +212,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,25 +243,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,25 +273,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,157 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,6 +482,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -497,39 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -541,6 +517,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,13 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>

--- a/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityGarden.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>升级条件（主船等级）</t>
   </si>
   <si>
-    <t>升级时间（s）</t>
-  </si>
-  <si>
     <t>解锁种子（id）</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>UpgradePreconditions</t>
-  </si>
-  <si>
-    <t>UpgradeSpeed</t>
   </si>
   <si>
     <t>SeedUnlock</t>
@@ -87,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,12 +109,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -128,15 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,47 +160,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,9 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,30 +223,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +267,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,109 +423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,54 +448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,15 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -506,6 +491,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -517,17 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +539,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,17 +563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,145 +581,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,26 +1052,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="1"/>
     <col min="2" max="2" width="16.9907407407407" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6759259259259" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.8055555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2407407407407" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.8148148148148" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.9351851851852" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.73148148148148" style="1"/>
+    <col min="5" max="5" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8148148148148" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.9351851851852" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.73148148148148" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1099,94 +1092,82 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>5000</v>
@@ -1194,25 +1175,22 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>5000</v>
@@ -1220,25 +1198,22 @@
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>5000</v>
@@ -1246,25 +1221,22 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>5000</v>
@@ -1272,25 +1244,22 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
         <v>50</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>5000</v>
@@ -1298,25 +1267,22 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>5000</v>
@@ -1324,16 +1290,13 @@
       <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
-        <v>50</v>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1">
         <v>50</v>
       </c>
     </row>
